--- a/train_sheet.xlsx
+++ b/train_sheet.xlsx
@@ -1,37 +1,136 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonin\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D845B03-DD1E-403B-8F07-FA74B55AAD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="trains" sheetId="1" r:id="rId1"/>
+    <sheet name="lists" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="29">
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>pretrained</t>
+  </si>
+  <si>
+    <t>trainable_core</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>patience</t>
+  </si>
+  <si>
+    <t>batch_size</t>
+  </si>
+  <si>
+    <t>augmentation_prob</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>top_idx</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>train_name</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>xception</t>
+  </si>
+  <si>
+    <t>detection</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+  <si>
+    <t>cropped</t>
+  </si>
+  <si>
+    <t>categorical_crossentropy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>sgd</t>
+  </si>
+  <si>
+    <t>noncropped</t>
+  </si>
+  <si>
+    <t>categorical_focal_crossentropy</t>
+  </si>
+  <si>
+    <t>densenet</t>
+  </si>
+  <si>
+    <t>mobilenet</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>inprogress</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +145,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,106 +472,1799 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>1E-4</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>1E-4</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>1E-4</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>1E-4</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>1E-4</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>1E-4</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
+      </c>
+      <c r="I7">
+        <v>32</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>1E-4</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>1E-4</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>32</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>1E-4</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>1E-4</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>32</v>
+      </c>
+      <c r="J11">
+        <v>0.25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>1E-4</v>
+      </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
+      <c r="I12">
+        <v>32</v>
+      </c>
+      <c r="J12">
+        <v>0.25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>1E-4</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>32</v>
+      </c>
+      <c r="J13">
+        <v>0.25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>1E-4</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>32</v>
+      </c>
+      <c r="J14">
+        <v>0.25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>1E-4</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <v>0.25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>1E-4</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>32</v>
+      </c>
+      <c r="J16">
+        <v>0.25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>1E-4</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>0.25</v>
+      </c>
+      <c r="K17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>1E-4</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <v>32</v>
+      </c>
+      <c r="J18">
+        <v>0.25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>1E-4</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>32</v>
+      </c>
+      <c r="J19">
+        <v>0.25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>1E-4</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20">
+        <v>32</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>1E-4</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>32</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>1E-4</v>
+      </c>
+      <c r="H22">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>32</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>1E-4</v>
+      </c>
+      <c r="H23">
+        <v>15</v>
+      </c>
+      <c r="I23">
+        <v>32</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>1E-4</v>
+      </c>
+      <c r="H24">
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <v>32</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>1E-4</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <v>32</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>1E-4</v>
+      </c>
+      <c r="H26">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>32</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>1E-4</v>
+      </c>
+      <c r="H27">
+        <v>15</v>
+      </c>
+      <c r="I27">
+        <v>32</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>1E-4</v>
+      </c>
+      <c r="H28">
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <v>32</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>19</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>1E-4</v>
+      </c>
+      <c r="H29">
+        <v>15</v>
+      </c>
+      <c r="I29">
+        <v>32</v>
+      </c>
+      <c r="J29">
+        <v>0.25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="G30">
+        <v>1E-4</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>32</v>
+      </c>
+      <c r="J30">
+        <v>0.25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>1E-4</v>
+      </c>
+      <c r="H31">
+        <v>15</v>
+      </c>
+      <c r="I31">
+        <v>32</v>
+      </c>
+      <c r="J31">
+        <v>0.25</v>
+      </c>
+      <c r="K31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>1E-4</v>
+      </c>
+      <c r="H32">
+        <v>15</v>
+      </c>
+      <c r="I32">
+        <v>32</v>
+      </c>
+      <c r="J32">
+        <v>0.25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>1E-4</v>
+      </c>
+      <c r="H33">
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <v>32</v>
+      </c>
+      <c r="J33">
+        <v>0.25</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>1E-4</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>32</v>
+      </c>
+      <c r="J34">
+        <v>0.25</v>
+      </c>
+      <c r="K34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35">
+        <v>1E-4</v>
+      </c>
+      <c r="H35">
+        <v>15</v>
+      </c>
+      <c r="I35">
+        <v>32</v>
+      </c>
+      <c r="J35">
+        <v>0.25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+      <c r="G36">
+        <v>1E-4</v>
+      </c>
+      <c r="H36">
+        <v>15</v>
+      </c>
+      <c r="I36">
+        <v>32</v>
+      </c>
+      <c r="J36">
+        <v>0.25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+      <c r="G37">
+        <v>1E-4</v>
+      </c>
+      <c r="H37">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>32</v>
+      </c>
+      <c r="J37">
+        <v>0.25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84072427-D68E-47D9-9F5D-274A6585A426}">
+          <x14:formula1>
+            <xm:f>lists!$B$2:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{30701BE9-9EF9-43D3-86E8-37FB0228951D}">
+          <x14:formula1>
+            <xm:f>lists!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD45E0EF-B80D-48E4-9C2C-869D668A6B92}">
+          <x14:formula1>
+            <xm:f>lists!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB73209D-DF86-494C-BABC-8921C6D8897F}">
+          <x14:formula1>
+            <xm:f>lists!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE2EB17D-E0A3-4632-82A1-2105BBE8417D}">
+          <x14:formula1>
+            <xm:f>lists!$K$2:$K$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K1:K1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C674341-AB02-4C93-BAC2-D856E48CECE7}">
+          <x14:formula1>
+            <xm:f>lists!$M$2:$M$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{02E6F3FB-EEAC-40E3-B97B-DF47B0ED0A77}">
+          <x14:formula1>
+            <xm:f>lists!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F4D92FE7-6136-4C5D-9008-04BB65F0C87A}">
+          <x14:formula1>
+            <xm:f>lists!$N$2:$N$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>N1:N1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A7030B-20A5-4327-BBA9-22824188B88C}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>model_name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pretrained</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>trainable_core</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>optimizer</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>epochs</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lr</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>patience</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>batch_size</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>augmentation_prob</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>database</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>top_idx</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>loss</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>train_name</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>done</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>xception</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>detection</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -527,51 +2272,57 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>adam</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>64</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>cropped</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>categorical_crossentropy</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0_model_name_xception_task_detection_pretrained_True_trainable_core_True_optimizer_adam_epochs_1_lr_0.001_patience_1_batch_size_64_augmentation_prob_0_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/train_sheet.xlsx
+++ b/train_sheet.xlsx
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -144,9 +144,6 @@
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -528,77 +525,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="inlineStr">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>model_name</t>
         </is>
       </c>
-      <c r="B1" s="14" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>task</t>
         </is>
       </c>
-      <c r="C1" s="14" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>pretrained</t>
         </is>
       </c>
-      <c r="D1" s="14" t="inlineStr">
+      <c r="D1" s="13" t="inlineStr">
         <is>
           <t>trainable_core</t>
         </is>
       </c>
-      <c r="E1" s="14" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>optimizer</t>
         </is>
       </c>
-      <c r="F1" s="14" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>epochs</t>
         </is>
       </c>
-      <c r="G1" s="14" t="inlineStr">
+      <c r="G1" s="13" t="inlineStr">
         <is>
           <t>lr</t>
         </is>
       </c>
-      <c r="H1" s="14" t="inlineStr">
+      <c r="H1" s="13" t="inlineStr">
         <is>
           <t>patience</t>
         </is>
       </c>
-      <c r="I1" s="14" t="inlineStr">
+      <c r="I1" s="13" t="inlineStr">
         <is>
           <t>batch_size</t>
         </is>
       </c>
-      <c r="J1" s="14" t="inlineStr">
+      <c r="J1" s="13" t="inlineStr">
         <is>
           <t>augmentation_prob</t>
         </is>
       </c>
-      <c r="K1" s="14" t="inlineStr">
+      <c r="K1" s="13" t="inlineStr">
         <is>
           <t>database</t>
         </is>
       </c>
-      <c r="L1" s="14" t="inlineStr">
+      <c r="L1" s="13" t="inlineStr">
         <is>
           <t>top_idx</t>
         </is>
       </c>
-      <c r="M1" s="14" t="inlineStr">
+      <c r="M1" s="13" t="inlineStr">
         <is>
           <t>loss</t>
         </is>
       </c>
-      <c r="N1" s="14" t="inlineStr">
+      <c r="N1" s="13" t="inlineStr">
         <is>
           <t>done</t>
         </is>
       </c>
-      <c r="O1" s="14" t="inlineStr">
+      <c r="O1" s="13" t="inlineStr">
         <is>
           <t>train_name</t>
         </is>
@@ -1754,7 +1751,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1_inprogress</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1815,12 +1812,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19_model_name_mobilenet_task_detection_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1873,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>20_model_name_densenet_task_detection_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1934,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>21_model_name_xception_task_detection_pretrained_True_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -1998,12 +1995,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>22_model_name_mobilenet_task_detection_pretrained_True_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2059,12 +2056,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>23_model_name_densenet_task_detection_pretrained_True_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2120,12 +2117,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>24_model_name_xception_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2178,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25_model_name_mobilenet_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2242,12 +2239,12 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>26_model_name_densenet_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2300,12 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>27_model_name_xception_task_detection_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2364,12 +2361,12 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>28_model_name_mobilenet_task_detection_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2425,12 +2422,12 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>29_model_name_densenet_task_detection_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2483,12 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>30_model_name_xception_task_detection_pretrained_True_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2547,12 +2544,12 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>31_model_name_mobilenet_task_detection_pretrained_True_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2608,12 +2605,12 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32_model_name_densenet_task_detection_pretrained_True_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2669,12 +2666,12 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33_model_name_xception_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2730,12 +2727,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>34_model_name_mobilenet_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2788,12 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>35_model_name_densenet_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
         </is>
       </c>
     </row>

--- a/train_sheet.xlsx
+++ b/train_sheet.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2794,6 +2794,738 @@
       <c r="O37" t="inlineStr">
         <is>
           <t>35_model_name_densenet_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>300</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>64</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>36_model_name_xception_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>300</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>64</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>37_model_name_mobilenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>300</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>32</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>38_model_name_densenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.0_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>300</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>64</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>39_model_name_xception_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>300</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>64</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>40_model_name_mobilenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>300</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+      <c r="I43" t="n">
+        <v>32</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>41_model_name_densenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>300</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>64</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>42_model_name_xception_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_noncropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>300</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>64</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>43_model_name_mobilenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_noncropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>300</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>32</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>44_model_name_densenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.0_database_noncropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>300</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" t="n">
+        <v>64</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>45_model_name_xception_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>300</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>64</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>46_model_name_mobilenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>300</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>32</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>47_model_name_densenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
         </is>
       </c>
     </row>

--- a/train_sheet.xlsx
+++ b/train_sheet.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3526,6 +3526,2202 @@
       <c r="O49" t="inlineStr">
         <is>
           <t>47_model_name_densenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>300</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>64</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>48_model_name_xception_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>300</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>64</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>49_model_name_mobilenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>300</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>32</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>50_model_name_densenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>300</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>64</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>51_model_name_xception_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>300</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" t="n">
+        <v>64</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>52_model_name_mobilenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>300</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" t="n">
+        <v>32</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>53_model_name_densenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>300</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>64</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>54_model_name_xception_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>300</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>64</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>55_model_name_mobilenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C58" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>300</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>32</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>56_model_name_densenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>300</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+      <c r="I59" t="n">
+        <v>64</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>57_model_name_xception_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>300</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" t="n">
+        <v>64</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>58_model_name_mobilenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>300</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>32</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>59_model_name_densenet_task_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>300</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+      <c r="I62" t="n">
+        <v>64</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>60_model_name_xception_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>300</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+      <c r="I63" t="n">
+        <v>64</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>61_model_name_mobilenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>300</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+      <c r="I64" t="n">
+        <v>32</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>62_model_name_densenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.0_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>300</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>64</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>63_model_name_xception_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C66" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>300</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+      <c r="I66" t="n">
+        <v>64</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>64_model_name_mobilenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C67" t="b">
+        <v>1</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>300</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+      <c r="I67" t="n">
+        <v>32</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>65_model_name_densenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C68" t="b">
+        <v>1</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>300</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+      <c r="I68" t="n">
+        <v>64</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>66_model_name_xception_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_noncropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C69" t="b">
+        <v>1</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>300</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+      <c r="I69" t="n">
+        <v>64</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>67_model_name_mobilenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_noncropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C70" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>300</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+      <c r="I70" t="n">
+        <v>32</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>68_model_name_densenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.0_database_noncropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C71" t="b">
+        <v>1</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>300</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+      <c r="I71" t="n">
+        <v>64</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>69_model_name_xception_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C72" t="b">
+        <v>1</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>300</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+      <c r="I72" t="n">
+        <v>64</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>70_model_name_mobilenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C73" t="b">
+        <v>1</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>300</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+      <c r="I73" t="n">
+        <v>32</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>71_model_name_densenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.0_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C74" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>300</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+      <c r="I74" t="n">
+        <v>64</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>72_model_name_xception_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C75" t="b">
+        <v>1</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>300</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+      <c r="I75" t="n">
+        <v>64</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>73_model_name_mobilenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C76" t="b">
+        <v>1</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>300</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+      <c r="I76" t="n">
+        <v>32</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>74_model_name_densenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C77" t="b">
+        <v>1</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>300</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+      <c r="I77" t="n">
+        <v>64</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>75_model_name_xception_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C78" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>300</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+      <c r="I78" t="n">
+        <v>64</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>76_model_name_mobilenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C79" t="b">
+        <v>1</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>300</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+      <c r="I79" t="n">
+        <v>32</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>77_model_name_densenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C80" t="b">
+        <v>1</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>300</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+      <c r="I80" t="n">
+        <v>64</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>78_model_name_xception_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C81" t="b">
+        <v>1</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>300</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+      <c r="I81" t="n">
+        <v>64</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>79_model_name_mobilenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C82" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>300</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>noncropped</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>80_model_name_densenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>xception</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C83" t="b">
+        <v>1</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>300</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+      <c r="I83" t="n">
+        <v>64</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>81_model_name_xception_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>mobilenet</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C84" t="b">
+        <v>1</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>300</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+      <c r="I84" t="n">
+        <v>64</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>82_model_name_mobilenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>densenet</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
+      <c r="C85" t="b">
+        <v>1</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>sgd</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>300</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I85" t="n">
+        <v>32</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>cropped</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>categorical_focal_crossentropy</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>83_model_name_densenet_task_abnormal_classification_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_focal_crossentropy</t>
         </is>
       </c>
     </row>
@@ -3548,21 +5744,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12.14785714285714" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="11.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="9.719285714285713" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.29071428571429" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
-    <col width="7.005" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="11.71928571428571" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="20.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="9.43357142857143" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="12.86214285714286" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="8.719285714285713" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="6.719285714285714" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
     <col width="2.147857142857143" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
-    <col width="8.290714285714287" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
-    <col width="9.719285714285713" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
-    <col width="18.14785714285714" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="8.005000000000001" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
+    <col width="9.576428571428572" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
     <col width="10.71928571428571" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
-    <col width="7.290714285714285" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
+    <col width="7.147857142857143" bestFit="1" customWidth="1" style="6" min="12" max="12"/>
     <col width="27.14785714285714" bestFit="1" customWidth="1" style="5" min="13" max="13"/>
-    <col width="5.290714285714285" bestFit="1" customWidth="1" style="5" min="14" max="14"/>
-    <col width="10.71928571428571" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
+    <col width="9.290714285714287" bestFit="1" customWidth="1" style="5" min="14" max="14"/>
+    <col width="10.29071428571429" bestFit="1" customWidth="1" style="5" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -3748,7 +5944,11 @@
           <t>densenet</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n"/>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>abnormal_classification</t>
+        </is>
+      </c>
       <c r="C4" s="5" t="n"/>
       <c r="D4" s="5" t="n"/>
       <c r="E4" s="5" t="n"/>
